--- a/data/加班计划.xlsx
+++ b/data/加班计划.xlsx
@@ -527,29 +527,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>兜底</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>401 Client Error: Unauthorized for url: https://api.siliconflow.cn/v1/chat/completions</t>
-        </is>
-      </c>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>📅 本月无公共假期，继续搬砖！</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>⏳ 上一个假期【端午节】已过去 76 天，怀念ing～</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>🚀 下一个假期【国庆节】还有 45 天，倒计时开始！</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
